--- a/dados_coletados/cobasi_20250912.xlsx
+++ b/dados_coletados/cobasi_20250912.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:N162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>R$ 82.90</t>
+          <t>R$ 77.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>R$ 218.90</t>
+          <t>R$ 203.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>R$ 99.90</t>
+          <t>R$ 93.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>R$ 252.90</t>
+          <t>R$ 236.50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>R$ 113.90</t>
+          <t>R$ 105.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>R$ 297.90</t>
+          <t>R$ 278.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -912,7 +912,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>R$ 73.90</t>
+          <t>R$ 68.90</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>R$ 195.90</t>
+          <t>R$ 182.90</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Antipulgas Simparic 5mg Para Cães 1,3 a 2,5kg</t>
+          <t>Antipulgas Simparic 40 a 60kg Cães 120mg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>R$ 73.90</t>
+          <t>R$ 111.90</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1055,12 +1055,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>R$ 98.90</t>
+          <t>R$ 159.90</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1070,12 +1070,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>3823538</t>
+          <t>3823589</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>823538</t>
+          <t>823589</t>
         </is>
       </c>
       <c r="M10" t="inlineStr"/>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Antipulgas Simparic 5mg Para Cães 1,3 a 2,5kg</t>
+          <t>Antipulgas Simparic 40 a 60kg Cães 120mg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>R$ 193.90</t>
+          <t>R$ 283.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>R$ 258.90</t>
+          <t>R$ 405.90</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1134,12 +1134,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3823538</t>
+          <t>3823589</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>823473</t>
+          <t>823520</t>
         </is>
       </c>
       <c r="M11" t="inlineStr"/>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Antipulgas Simparic 40 a 60kg Cães 120mg</t>
+          <t>Antipulgas Simparic 5mg Para Cães 1,3 a 2,5kg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>R$ 119.90</t>
+          <t>R$ 68.90</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1183,12 +1183,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>R$ 159.90</t>
+          <t>R$ 98.90</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3823589</t>
+          <t>3823538</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>823589</t>
+          <t>823538</t>
         </is>
       </c>
       <c r="M12" t="inlineStr"/>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Antipulgas Simparic 40 a 60kg Cães 120mg</t>
+          <t>Antipulgas Simparic 5mg Para Cães 1,3 a 2,5kg</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>R$ 303.90</t>
+          <t>R$ 180.90</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>R$ 405.90</t>
+          <t>R$ 258.90</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1262,12 +1262,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3823589</t>
+          <t>3823538</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>823520</t>
+          <t>823473</t>
         </is>
       </c>
       <c r="M13" t="inlineStr"/>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Antipulgas Revolution 12% para Cães de 5,1kg a 10kg</t>
+          <t>Antipulgas Revolution 12% para Cães de 2,6kg a 5kg</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>R$ 89.90</t>
+          <t>R$ 77.90</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>R$ 119.90</t>
+          <t>R$ 103.90</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1582,12 +1582,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3940658</t>
+          <t>3941026</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>941034</t>
+          <t>941026</t>
         </is>
       </c>
       <c r="M18" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Antipulgas Revolution 12% para Cães de 5,1kg a 10kg</t>
+          <t>Antipulgas Revolution 12% para Cães de 2,6kg a 5kg</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>R$ 200.90</t>
+          <t>R$ 188.90</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>R$ 267.90</t>
+          <t>R$ 251.90</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1646,12 +1646,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3940658</t>
+          <t>3941026</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>940658</t>
+          <t>940640</t>
         </is>
       </c>
       <c r="M19" t="inlineStr"/>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Antipulgas Revolution 12% para Cães de 10,1kg a 20kg</t>
+          <t>Antipulgas Revolution 12% para Cães de 5,1kg a 10kg</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>R$ 102.90</t>
+          <t>R$ 89.90</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>R$ 137.90</t>
+          <t>R$ 119.90</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1710,12 +1710,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>3940666</t>
+          <t>3940658</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>941042</t>
+          <t>941034</t>
         </is>
       </c>
       <c r="M20" t="inlineStr"/>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Antipulgas Revolution 12% para Cães de 10,1kg a 20kg</t>
+          <t>Antipulgas Revolution 12% para Cães de 5,1kg a 10kg</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>R$ 238.90</t>
+          <t>R$ 200.90</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>R$ 318.90</t>
+          <t>R$ 267.90</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>3940666</t>
+          <t>3940658</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>940666</t>
+          <t>940658</t>
         </is>
       </c>
       <c r="M21" t="inlineStr"/>
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Antipulgas Revolution 12% para Cães de 20,1kg a 40kg</t>
+          <t>Antipulgas Revolution 12% para Cães de 10,1kg a 20kg</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>R$ 118.90</t>
+          <t>R$ 102.90</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>R$ 158.90</t>
+          <t>R$ 137.90</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1838,12 +1838,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3940674</t>
+          <t>3940666</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>941050</t>
+          <t>941042</t>
         </is>
       </c>
       <c r="M22" t="inlineStr"/>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Antipulgas Revolution 12% para Cães de 20,1kg a 40kg</t>
+          <t>Antipulgas Revolution 12% para Cães de 10,1kg a 20kg</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>R$ 275.90</t>
+          <t>R$ 238.90</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>R$ 367.90</t>
+          <t>R$ 318.90</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1902,12 +1902,12 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>3940674</t>
+          <t>3940666</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>940674</t>
+          <t>940666</t>
         </is>
       </c>
       <c r="M23" t="inlineStr"/>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Antipulgas Revolution 12% para Cães de 2,6kg a 5kg</t>
+          <t>Antipulgas Revolution 12% para Cães de 20,1kg a 40kg</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>R$ 77.90</t>
+          <t>R$ 118.90</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>R$ 103.90</t>
+          <t>R$ 158.90</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1966,12 +1966,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3941026</t>
+          <t>3940674</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>941026</t>
+          <t>941050</t>
         </is>
       </c>
       <c r="M24" t="inlineStr"/>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Antipulgas Revolution 12% para Cães de 2,6kg a 5kg</t>
+          <t>Antipulgas Revolution 12% para Cães de 20,1kg a 40kg</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>R$ 188.90</t>
+          <t>R$ 275.90</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2015,7 +2015,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>R$ 251.90</t>
+          <t>R$ 367.90</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2030,12 +2030,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>3941026</t>
+          <t>3940674</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>940640</t>
+          <t>940674</t>
         </is>
       </c>
       <c r="M25" t="inlineStr"/>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NexGard Spectra Antipulgas e Vermífugo Cães 7,6kg a 15kg</t>
+          <t>NexGard Spectra Antipulgas e Vermífugo Cães 3,6kg a 7,5kg</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>R$ 78.50</t>
+          <t>R$ 69.50</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>R$ 130.90</t>
+          <t>R$ 115.90</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3502,12 +3502,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>3992658</t>
+          <t>3992640</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>992658</t>
+          <t>992640</t>
         </is>
       </c>
       <c r="M48" t="inlineStr"/>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NexGard Spectra Antipulgas e Vermífugo Cães 7,6kg a 15kg</t>
+          <t>NexGard Spectra Antipulgas e Vermífugo Cães 3,6kg a 7,5kg</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>R$ 210.50</t>
+          <t>R$ 185.90</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>R$ 350.90</t>
+          <t>R$ 309.90</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3566,12 +3566,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>3992658</t>
+          <t>3992640</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>1125893</t>
+          <t>1125885</t>
         </is>
       </c>
       <c r="M49" t="inlineStr"/>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NexGard Spectra Antipulgas e Vermífugo Cães 3,6kg a 7,5kg</t>
+          <t>NexGard Spectra Antipulgas e Vermífugo Cães 7,6kg a 15kg</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>R$ 69.50</t>
+          <t>R$ 78.50</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>R$ 115.90</t>
+          <t>R$ 130.90</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3630,12 +3630,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>3992640</t>
+          <t>3992658</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>992640</t>
+          <t>992658</t>
         </is>
       </c>
       <c r="M50" t="inlineStr"/>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>NexGard Spectra Antipulgas e Vermífugo Cães 3,6kg a 7,5kg</t>
+          <t>NexGard Spectra Antipulgas e Vermífugo Cães 7,6kg a 15kg</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>R$ 185.90</t>
+          <t>R$ 210.50</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>R$ 309.90</t>
+          <t>R$ 350.90</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3694,12 +3694,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>3992640</t>
+          <t>3992658</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1125885</t>
+          <t>1125893</t>
         </is>
       </c>
       <c r="M51" t="inlineStr"/>
@@ -4742,17 +4742,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Antipulgas Bravecto Transdermal Cães 10 a 20 kg</t>
+          <t>Antipulgas Bravecto Transdermal Cães 2 a 4,5 kg</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>500 mg</t>
+          <t>112,5 mg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>R$ 223.90</t>
+          <t>R$ 157.90</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>R$ 280.50</t>
+          <t>R$ 197.90</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4782,12 +4782,12 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>3618101</t>
+          <t>3617717</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>618101</t>
+          <t>617717</t>
         </is>
       </c>
       <c r="M68" t="inlineStr"/>
@@ -4806,17 +4806,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Antipulgas Bravecto Transdermal Cães 2 a 4,5 kg</t>
+          <t>Antipulgas Bravecto Transdermal Cães 10 a 20 kg</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>112,5 mg</t>
+          <t>500 mg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>R$ 157.90</t>
+          <t>R$ 223.90</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>R$ 197.90</t>
+          <t>R$ 280.50</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4846,12 +4846,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>3617717</t>
+          <t>3618101</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>617717</t>
+          <t>618101</t>
         </is>
       </c>
       <c r="M69" t="inlineStr"/>
@@ -5062,17 +5062,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Antipulgas Bravecto Plus Gatos 6,25 a 12,5 kg</t>
+          <t>Antipulgas Bravecto Plus Gatos 2,8 a 6,25kg</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1,79 ml</t>
+          <t>0,89 ml</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>R$ 219.90</t>
+          <t>R$ 185.90</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>R$ 275.50</t>
+          <t>R$ 232.90</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5102,12 +5102,12 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>3994111</t>
+          <t>3994103</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>994111</t>
+          <t>994103</t>
         </is>
       </c>
       <c r="M73" t="inlineStr"/>
@@ -5190,17 +5190,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Antipulgas Bravecto Transdermal Gatos 1,2 a 2,8kg</t>
+          <t>Antipulgas Bravecto Plus Gatos 6,25 a 12,5 kg</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>112,5 mg</t>
+          <t>1,79 ml</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>R$ 149.90</t>
+          <t>R$ 219.90</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>R$ 187.50</t>
+          <t>R$ 275.50</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -5230,12 +5230,12 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>3617288</t>
+          <t>3994111</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>617288</t>
+          <t>994111</t>
         </is>
       </c>
       <c r="M75" t="inlineStr"/>
@@ -5254,17 +5254,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Antipulgas Bravecto Transdermal Gatos 6,25 a 12,5kg</t>
+          <t>Antipulgas Bravecto Transdermal Gatos 1,2 a 2,8kg</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>500 mg</t>
+          <t>112,5 mg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>R$ 199.90</t>
+          <t>R$ 149.90</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>R$ 249.90</t>
+          <t>R$ 187.50</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5294,12 +5294,12 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>3617709</t>
+          <t>3617288</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>617709</t>
+          <t>617288</t>
         </is>
       </c>
       <c r="M76" t="inlineStr"/>
@@ -5313,22 +5313,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Frontline</t>
+          <t>Bravecto</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Topspot para Cães de 1 a 10kg</t>
+          <t>Antipulgas Bravecto Transdermal Gatos 6,25 a 12,5kg</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0,67 ml</t>
+          <t>500 mg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>R$ 39.00</t>
+          <t>R$ 199.90</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5343,12 +5343,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>R$ 39.00</t>
+          <t>R$ 249.90</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5358,12 +5358,12 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>3920312</t>
+          <t>3617709</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>920312</t>
+          <t>617709</t>
         </is>
       </c>
       <c r="M77" t="inlineStr"/>
@@ -5382,17 +5382,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Topspot Gatos</t>
+          <t>Antipulgas e Carrapatos Frontline Topspot para Cães de 1 a 10kg</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0,5 ml</t>
+          <t>0,67 ml</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>R$ 35.00</t>
+          <t>R$ 39.00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>R$ 35.00</t>
+          <t>R$ 39.00</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5422,12 +5422,12 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>3920681</t>
+          <t>3920312</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>920681</t>
+          <t>920312</t>
         </is>
       </c>
       <c r="M78" t="inlineStr"/>
@@ -5446,17 +5446,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Spray Cães e Gatos</t>
+          <t>Antipulgas e Carrapatos Frontline Topspot Gatos</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>100 ml</t>
+          <t>0,5 ml</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>R$ 142.00</t>
+          <t>R$ 35.00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>R$ 142.00</t>
+          <t>R$ 35.00</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -5486,12 +5486,12 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>3929603</t>
+          <t>3920681</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>929603</t>
+          <t>920681</t>
         </is>
       </c>
       <c r="M79" t="inlineStr"/>
@@ -5510,17 +5510,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Plus para Cães até 10kg</t>
+          <t>Antipulgas e Carrapatos Frontline Spray Cães e Gatos</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0,67 ml</t>
+          <t>100 ml</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>R$ 61.00</t>
+          <t>R$ 142.00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5535,7 +5535,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>R$ 61.00</t>
+          <t>R$ 142.00</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5550,12 +5550,12 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>3941514</t>
+          <t>3929603</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>941514</t>
+          <t>929603</t>
         </is>
       </c>
       <c r="M80" t="inlineStr"/>
@@ -5574,17 +5574,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Topspot para Cães de 20 a 40kg</t>
+          <t>Antipulgas e Carrapatos Frontline Plus para Cães até 10kg</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2,68 ml</t>
+          <t>0,67 ml</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>R$ 46.50</t>
+          <t>R$ 61.00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>R$ 46.50</t>
+          <t>R$ 61.00</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5614,12 +5614,12 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>3920673</t>
+          <t>3941514</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>920673</t>
+          <t>941514</t>
         </is>
       </c>
       <c r="M81" t="inlineStr"/>
@@ -5638,17 +5638,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Topspot Cães entre 10 e 20kg</t>
+          <t>Antipulgas e Carrapatos Frontline Plus para Gatos</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1,34 ml</t>
+          <t>0,5 ml</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>R$ 41.00</t>
+          <t>R$ 57.00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>R$ 41.00</t>
+          <t>R$ 57.00</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5678,12 +5678,12 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>3920320</t>
+          <t>3941557</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>920320</t>
+          <t>941557</t>
         </is>
       </c>
       <c r="M82" t="inlineStr"/>
@@ -5702,17 +5702,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Plus para Gatos</t>
+          <t>Antipulgas e Carrapatos Frontline Topspot para Cães de 20 a 40kg</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0,5 ml</t>
+          <t>2,68 ml</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>R$ 57.00</t>
+          <t>R$ 46.50</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>R$ 57.00</t>
+          <t>R$ 46.50</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5742,12 +5742,12 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>3941557</t>
+          <t>3920673</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>941557</t>
+          <t>920673</t>
         </is>
       </c>
       <c r="M83" t="inlineStr"/>
@@ -5766,17 +5766,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Plus Cães entre 10 e 20kg</t>
+          <t>Antipulgas e Carrapatos Frontline Topspot Cães entre 10 e 20kg</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Único</t>
+          <t>1,34 ml</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>R$ 70.00</t>
+          <t>R$ 41.00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5791,7 +5791,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>R$ 70.00</t>
+          <t>R$ 41.00</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5806,12 +5806,12 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>3941522</t>
+          <t>3920320</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>941522</t>
+          <t>920320</t>
         </is>
       </c>
       <c r="M84" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Plus Cães entre 20 e 40kg</t>
+          <t>Antipulgas e Carrapatos Frontline Plus Cães entre 10 e 20kg</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>R$ 80.00</t>
+          <t>R$ 70.00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5855,7 +5855,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>R$ 80.00</t>
+          <t>R$ 70.00</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>3941530</t>
+          <t>3941522</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>941530</t>
+          <t>941522</t>
         </is>
       </c>
       <c r="M85" t="inlineStr"/>
@@ -5894,7 +5894,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Antipulgas e Carrapatos Frontline Plus Cães entre 40 e 60kg</t>
+          <t>Antipulgas e Carrapatos Frontline Plus Cães entre 20 e 40kg</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>R$ 90.00</t>
+          <t>R$ 80.00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>R$ 90.00</t>
+          <t>R$ 80.00</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5934,12 +5934,12 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>3941549</t>
+          <t>3941530</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>941549</t>
+          <t>941530</t>
         </is>
       </c>
       <c r="M86" t="inlineStr"/>
@@ -5953,22 +5953,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Advocate</t>
+          <t>Frontline</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate Gatos entre 4 e 8kg</t>
+          <t>Antipulgas e Carrapatos Frontline Plus Cães entre 40 e 60kg</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1 pipeta</t>
+          <t>Único</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>R$ 98.90</t>
+          <t>R$ 90.00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>R$ 116.90</t>
+          <t>R$ 90.00</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5998,12 +5998,12 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>3321451</t>
+          <t>3941549</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>321451</t>
+          <t>941549</t>
         </is>
       </c>
       <c r="M87" t="inlineStr"/>
@@ -6027,12 +6027,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3 pipetas</t>
+          <t>1 pipeta</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>R$ 186.90</t>
+          <t>R$ 98.90</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6047,7 +6047,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>R$ 220.50</t>
+          <t>R$ 116.90</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6067,7 +6067,7 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>439738</t>
+          <t>321451</t>
         </is>
       </c>
       <c r="M88" t="inlineStr"/>
@@ -6086,17 +6086,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate Gatos até 4 kg</t>
+          <t>Antipulgas Advocate Gatos entre 4 e 8kg</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1 pipeta</t>
+          <t>3 pipetas</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>R$ 89.50</t>
+          <t>R$ 186.90</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>R$ 105.50</t>
+          <t>R$ 220.50</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6126,12 +6126,12 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>3321435</t>
+          <t>3321451</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>321435</t>
+          <t>439738</t>
         </is>
       </c>
       <c r="M89" t="inlineStr"/>
@@ -6155,12 +6155,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3 pipetas</t>
+          <t>1 pipeta</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>R$ 170.90</t>
+          <t>R$ 89.50</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6175,7 +6175,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>R$ 201.50</t>
+          <t>R$ 105.50</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>439720</t>
+          <t>321435</t>
         </is>
       </c>
       <c r="M90" t="inlineStr"/>
@@ -6214,17 +6214,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate Cães 10 a 25kg</t>
+          <t>Antipulgas Advocate Gatos até 4 kg</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1 pipeta</t>
+          <t>3 pipetas</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>R$ 106.50</t>
+          <t>R$ 170.90</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>R$ 125.50</t>
+          <t>R$ 201.50</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6254,12 +6254,12 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>3321486</t>
+          <t>3321435</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>321486</t>
+          <t>439720</t>
         </is>
       </c>
       <c r="M91" t="inlineStr"/>
@@ -6278,17 +6278,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate Cães 10 a 25kg</t>
+          <t>Antipulgas Advocate Cães mais de 25kg</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3 pipetas</t>
+          <t>1 pipeta</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>R$ 236.50</t>
+          <t>R$ 124.50</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>R$ 278.50</t>
+          <t>R$ 146.50</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -6318,12 +6318,12 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>3321486</t>
+          <t>3321494</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>894028</t>
+          <t>321494</t>
         </is>
       </c>
       <c r="M92" t="inlineStr"/>
@@ -6342,17 +6342,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate Cães 4 a 10kg</t>
+          <t>Antipulgas Advocate Cães mais de 25kg</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1 pipeta</t>
+          <t>3 pipetas</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>R$ 89.50</t>
+          <t>R$ 276.50</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6367,7 +6367,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>R$ 105.50</t>
+          <t>R$ 325.50</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6382,12 +6382,12 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>3321478</t>
+          <t>3321494</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>321478</t>
+          <t>894036</t>
         </is>
       </c>
       <c r="M93" t="inlineStr"/>
@@ -6411,12 +6411,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>3 pipetas</t>
+          <t>1 pipeta</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>R$ 197.90</t>
+          <t>R$ 89.50</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>R$ 233.50</t>
+          <t>R$ 105.50</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>894010</t>
+          <t>321478</t>
         </is>
       </c>
       <c r="M94" t="inlineStr"/>
@@ -6470,17 +6470,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate Cães mais de 25kg</t>
+          <t>Antipulgas Advocate Cães 4 a 10kg</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>1 pipeta</t>
+          <t>3 pipetas</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>R$ 124.50</t>
+          <t>R$ 197.90</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>R$ 146.50</t>
+          <t>R$ 233.50</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6510,12 +6510,12 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>3321494</t>
+          <t>3321478</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>321494</t>
+          <t>894010</t>
         </is>
       </c>
       <c r="M95" t="inlineStr"/>
@@ -6534,17 +6534,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate Cães mais de 25kg</t>
+          <t>Antipulgas Advocate Cães até 4kg</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>3 pipetas</t>
+          <t>1 pipeta</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>R$ 276.50</t>
+          <t>R$ 79.50</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -6559,7 +6559,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>R$ 325.50</t>
+          <t>R$ 93.90</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -6574,12 +6574,12 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>3321494</t>
+          <t>3321460</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>894036</t>
+          <t>321460</t>
         </is>
       </c>
       <c r="M96" t="inlineStr"/>
@@ -6603,12 +6603,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1 pipeta</t>
+          <t>3 pipetas</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>R$ 79.50</t>
+          <t>R$ 177.90</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6623,7 +6623,7 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>R$ 93.90</t>
+          <t>R$ 209.50</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -6643,7 +6643,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>321460</t>
+          <t>894001</t>
         </is>
       </c>
       <c r="M97" t="inlineStr"/>
@@ -6662,17 +6662,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Antipulgas Advocate Cães até 4kg</t>
+          <t>Antipulgas Advocate Cães 10 a 25kg</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3 pipetas</t>
+          <t>1 pipeta</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>R$ 177.90</t>
+          <t>R$ 106.50</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>R$ 209.50</t>
+          <t>R$ 125.50</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -6702,12 +6702,12 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>3321460</t>
+          <t>3321486</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>894001</t>
+          <t>321486</t>
         </is>
       </c>
       <c r="M98" t="inlineStr"/>
@@ -6716,27 +6716,27 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Vermífugo</t>
+          <t>Antipulgas e Carrapatos</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Drontal</t>
+          <t>Advocate</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Drontal Plus + Sabor para Cães 10kg</t>
+          <t>Antipulgas Advocate Cães 10 a 25kg</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2 Comprimidos</t>
+          <t>3 pipetas</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>R$ 44.50</t>
+          <t>R$ 236.50</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>R$ 55.90</t>
+          <t>R$ 278.50</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>31170210</t>
+          <t>3321486</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>1170210</t>
+          <t>894028</t>
         </is>
       </c>
       <c r="M99" t="inlineStr"/>
@@ -6795,12 +6795,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>4 Comprimidos</t>
+          <t>2 Comprimidos</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>R$ 67.50</t>
+          <t>R$ 44.50</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>R$ 84.50</t>
+          <t>R$ 55.90</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6835,7 +6835,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>1170228</t>
+          <t>1170210</t>
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
@@ -6854,17 +6854,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Drontal Plus + Sabor para Cães 35kg</t>
+          <t>Drontal Plus + Sabor para Cães 10kg</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2 Comprimidos</t>
+          <t>4 Comprimidos</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>R$ 101.90</t>
+          <t>R$ 67.50</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>R$ 127.50</t>
+          <t>R$ 84.50</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6894,12 +6894,12 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>31170236</t>
+          <t>31170210</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>1170236</t>
+          <t>1170228</t>
         </is>
       </c>
       <c r="M101" t="inlineStr"/>
@@ -6918,17 +6918,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Vermífugo Drontal Puppy Suspensão</t>
+          <t>Drontal Plus + Sabor para Cães 35kg</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>20 ml</t>
+          <t>2 Comprimidos</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>R$ 64.90</t>
+          <t>R$ 101.90</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>R$ 81.50</t>
+          <t>R$ 127.50</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -6958,12 +6958,12 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>3920282</t>
+          <t>31170236</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>920282</t>
+          <t>1170236</t>
         </is>
       </c>
       <c r="M102" t="inlineStr"/>
@@ -6982,17 +6982,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Drontal Vermicida para Gatos Elanco</t>
+          <t>Vermífugo Drontal Puppy Suspensão</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>4 comprimidos</t>
+          <t>20 ml</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>R$ 52.90</t>
+          <t>R$ 64.90</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>R$ 66.50</t>
+          <t>R$ 81.50</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -7022,12 +7022,12 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>3921661</t>
+          <t>3920282</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>921661</t>
+          <t>920282</t>
         </is>
       </c>
       <c r="M103" t="inlineStr"/>
@@ -7046,17 +7046,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Vermífugo Drontal Spot On para Gatos 2,5kg a 5kg</t>
+          <t>Drontal Vermicida para Gatos Elanco</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1 bisnaga</t>
+          <t>4 comprimidos</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>R$ 69.50</t>
+          <t>R$ 52.90</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>R$ 86.90</t>
+          <t>R$ 66.50</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7086,12 +7086,12 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>3958883</t>
+          <t>3921661</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>958883</t>
+          <t>921661</t>
         </is>
       </c>
       <c r="M104" t="inlineStr"/>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Vermífugo Drontal Spot On para Gatos 0,5kg a 2,5kg</t>
+          <t>Vermífugo Drontal Spot On para Gatos 2,5kg a 5kg</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -7120,7 +7120,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>R$ 61.90</t>
+          <t>R$ 69.50</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>R$ 77.50</t>
+          <t>R$ 86.90</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7150,12 +7150,12 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>3958700</t>
+          <t>3958883</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>958700</t>
+          <t>958883</t>
         </is>
       </c>
       <c r="M105" t="inlineStr"/>
@@ -7174,7 +7174,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Vermífugo Drontal Spot On para Gatos 5kg a 8kg</t>
+          <t>Vermífugo Drontal Spot On para Gatos 0,5kg a 2,5kg</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>R$ 75.90</t>
+          <t>R$ 61.90</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>R$ 95.50</t>
+          <t>R$ 77.50</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7214,12 +7214,12 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>3958891</t>
+          <t>3958700</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>958891</t>
+          <t>958700</t>
         </is>
       </c>
       <c r="M106" t="inlineStr"/>
@@ -7233,22 +7233,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Milbemax</t>
+          <t>Drontal</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Vermífugo Milbemax C Cães 5 a 25kg</t>
+          <t>Vermífugo Drontal Spot On para Gatos 5kg a 8kg</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2 comprimidos</t>
+          <t>1 bisnaga</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>R$ 66.50</t>
+          <t>R$ 75.90</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -7263,12 +7263,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>R$ 78.50</t>
+          <t>R$ 95.50</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>15%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -7278,12 +7278,12 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>3558109</t>
+          <t>3958891</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>558109</t>
+          <t>958891</t>
         </is>
       </c>
       <c r="M107" t="inlineStr"/>
@@ -7302,7 +7302,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Vermífugo Milbemax C Cães até 5kg</t>
+          <t>Vermífugo Milbemax C Cães 5 a 25kg</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -7312,7 +7312,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>R$ 39.50</t>
+          <t>R$ 66.50</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>R$ 46.50</t>
+          <t>R$ 78.50</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7342,12 +7342,12 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>3558095</t>
+          <t>3558109</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>558095</t>
+          <t>558109</t>
         </is>
       </c>
       <c r="M108" t="inlineStr"/>
@@ -7366,17 +7366,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Vermífugo Milbemax G Gatos 2 a 8kg</t>
+          <t>Vermífugo Milbemax C Cães até 5kg</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2 Comprimidos</t>
+          <t>2 comprimidos</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>R$ 53.90</t>
+          <t>R$ 39.50</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>R$ 63.90</t>
+          <t>R$ 46.50</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -7406,12 +7406,12 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>3903051</t>
+          <t>3558095</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>903051</t>
+          <t>558095</t>
         </is>
       </c>
       <c r="M109" t="inlineStr"/>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Vermífugo Milbemax G Gatos  0,5 a 2kg</t>
+          <t>Vermífugo Milbemax G Gatos 2 a 8kg</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -7440,7 +7440,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>R$ 28.50</t>
+          <t>R$ 53.90</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -7455,7 +7455,7 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>R$ 33.90</t>
+          <t>R$ 63.90</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -7470,12 +7470,12 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>3903043</t>
+          <t>3903051</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>903043</t>
+          <t>903051</t>
         </is>
       </c>
       <c r="M110" t="inlineStr"/>
@@ -7489,22 +7489,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Vermivet</t>
+          <t>Milbemax</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Vermífugo Vermivet Composto 600 mg Biovet</t>
+          <t>Vermífugo Milbemax G Gatos  0,5 a 2kg</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>4 comprimidos</t>
+          <t>2 Comprimidos</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>R$ 12.90</t>
+          <t>R$ 28.50</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -7519,12 +7519,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>R$ 12.90</t>
+          <t>R$ 33.90</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>15%</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7534,12 +7534,12 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>3456764</t>
+          <t>3903043</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>456764</t>
+          <t>903043</t>
         </is>
       </c>
       <c r="M111" t="inlineStr"/>
@@ -7558,7 +7558,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Vermífugo Vermivet Plus 660 mg Biovet</t>
+          <t>Vermífugo Vermivet Composto 600 mg Biovet</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>R$ 39.90</t>
+          <t>R$ 12.90</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7583,7 +7583,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>R$ 39.90</t>
+          <t>R$ 12.90</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -7598,12 +7598,12 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>3593427</t>
+          <t>3456764</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>593427</t>
+          <t>456764</t>
         </is>
       </c>
       <c r="M112" t="inlineStr"/>
@@ -7622,17 +7622,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Vermífugo Vermivet Plus 2,0 g Biovet</t>
+          <t>Vermífugo Vermivet Plus 660 mg Biovet</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2 comprimidos</t>
+          <t>4 comprimidos</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>R$ 60.90</t>
+          <t>R$ 39.90</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -7647,7 +7647,7 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>R$ 60.90</t>
+          <t>R$ 39.90</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
@@ -7662,12 +7662,12 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>3593451</t>
+          <t>3593427</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>593451</t>
+          <t>593427</t>
         </is>
       </c>
       <c r="M113" t="inlineStr"/>
@@ -7686,17 +7686,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Vermífugo Vermivet Filhote Biovet</t>
+          <t>Vermífugo Vermivet Plus 2,0 g Biovet</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>20 ml</t>
+          <t>2 comprimidos</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>R$ 51.90</t>
+          <t>R$ 60.90</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>R$ 51.90</t>
+          <t>R$ 60.90</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
@@ -7726,12 +7726,12 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>3589462</t>
+          <t>3593451</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>589462</t>
+          <t>593451</t>
         </is>
       </c>
       <c r="M114" t="inlineStr"/>
@@ -7750,17 +7750,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Vermífugo Vermivet para Gatos Composto Biovet</t>
+          <t>Vermífugo Vermivet Filhote Biovet</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4 comprimidos</t>
+          <t>20 ml</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>R$ 45.90</t>
+          <t>R$ 51.90</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>R$ 45.90</t>
+          <t>R$ 51.90</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -7790,12 +7790,12 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>3449628</t>
+          <t>3589462</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>449628</t>
+          <t>589462</t>
         </is>
       </c>
       <c r="M115" t="inlineStr"/>
@@ -7804,27 +7804,27 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Anti-inflamatório</t>
+          <t>Vermífugo</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Rimadyl</t>
+          <t>Vermivet</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Rimadyl 25mg Anti-inflamatório para Cães</t>
+          <t>Vermífugo Vermivet para Gatos Composto Biovet</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>14 comprimidos</t>
+          <t>4 comprimidos</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>R$ 82.90</t>
+          <t>R$ 45.90</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -7839,7 +7839,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>R$ 82.90</t>
+          <t>R$ 45.90</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -7854,12 +7854,12 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>3502197</t>
+          <t>3449628</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>502197</t>
+          <t>449628</t>
         </is>
       </c>
       <c r="M116" t="inlineStr"/>
@@ -7878,7 +7878,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Rimadyl 100 mg Anti-inflamatório para Cães</t>
+          <t>Rimadyl 25mg Anti-inflamatório para Cães</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -7888,7 +7888,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>R$ 136.90</t>
+          <t>R$ 82.90</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -7903,7 +7903,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>R$ 136.90</t>
+          <t>R$ 82.90</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -7918,12 +7918,12 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>3502219</t>
+          <t>3502197</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>502219</t>
+          <t>502197</t>
         </is>
       </c>
       <c r="M117" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Rimadyl 75 mg Anti-inflamatório para Cães</t>
+          <t>Rimadyl 100 mg Anti-inflamatório para Cães</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>R$ 115.90</t>
+          <t>R$ 136.90</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>R$ 115.90</t>
+          <t>R$ 136.90</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -7982,12 +7982,12 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>3502200</t>
+          <t>3502219</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>502200</t>
+          <t>502219</t>
         </is>
       </c>
       <c r="M118" t="inlineStr"/>
@@ -8001,22 +8001,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Onsior</t>
+          <t>Rimadyl</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Onsior 10mg Anti-inflamatório para Cães</t>
+          <t>Rimadyl 75 mg Anti-inflamatório para Cães</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>7 comprimidos</t>
+          <t>14 comprimidos</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>R$ 78.50</t>
+          <t>R$ 115.90</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>R$ 78.50</t>
+          <t>R$ 115.90</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8046,12 +8046,12 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>3911100</t>
+          <t>3502200</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>911100</t>
+          <t>502200</t>
         </is>
       </c>
       <c r="M119" t="inlineStr"/>
@@ -8070,7 +8070,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Onsior 40mg Anti-inflamatório para Cães</t>
+          <t>Onsior 10mg Anti-inflamatório para Cães</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>R$ 150.50</t>
+          <t>R$ 78.50</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>R$ 150.50</t>
+          <t>R$ 78.50</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8110,12 +8110,12 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>3911089</t>
+          <t>3911100</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>911089</t>
+          <t>911100</t>
         </is>
       </c>
       <c r="M120" t="inlineStr"/>
@@ -8257,22 +8257,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Maxicam</t>
+          <t>Onsior</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Maxicam 0,5 mg Anti-inflamatório para Cães e Gatos</t>
+          <t>Onsior 40mg Anti-inflamatório para Cães</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>10 comprimidos</t>
+          <t>7 comprimidos</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>R$ 32.29</t>
+          <t>R$ 150.50</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -8287,12 +8287,12 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>R$ 36.90</t>
+          <t>R$ 150.50</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8302,12 +8302,12 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>3505455</t>
+          <t>3911089</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>505455</t>
+          <t>911089</t>
         </is>
       </c>
       <c r="M123" t="inlineStr"/>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Maxicam Ourofino 2mg Anti-inflamatório para Cães</t>
+          <t>Maxicam 0,5 mg Anti-inflamatório para Cães e Gatos</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>R$ 57.90</t>
+          <t>R$ 32.29</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -8351,12 +8351,12 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>R$ 57.90</t>
+          <t>R$ 36.90</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8366,12 +8366,12 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>3503134</t>
+          <t>3505455</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>503134</t>
+          <t>505455</t>
         </is>
       </c>
       <c r="M124" t="inlineStr"/>
@@ -8390,17 +8390,17 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Anti-inflamatório Maxicam Injetável Ourofino</t>
+          <t>Maxicam Ourofino 2mg Anti-inflamatório para Cães</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>20 ml</t>
+          <t>10 comprimidos</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>R$ 76.90</t>
+          <t>R$ 57.90</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -8415,7 +8415,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>R$ 76.90</t>
+          <t>R$ 57.90</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -8430,12 +8430,12 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>3328332</t>
+          <t>3503134</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>328332</t>
+          <t>503134</t>
         </is>
       </c>
       <c r="M125" t="inlineStr"/>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Anti-inflamatório Gatos Meloxicam Mellis Vet</t>
+          <t>Prediderm 5 mg Anti-inflamatório para Cães</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -8464,7 +8464,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>R$ 19.90</t>
+          <t>R$ 20.90</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -8479,7 +8479,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>R$ 19.90</t>
+          <t>R$ 20.90</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8494,12 +8494,12 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>3968340</t>
+          <t>3280330</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>968340</t>
+          <t>280330</t>
         </is>
       </c>
       <c r="M126" t="inlineStr"/>
@@ -8518,17 +8518,17 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Anti-inflamatório Flamavet 0,2mg Gatos</t>
+          <t>Anti-inflamatório Maxicam Injetável Ourofino</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>10 comprimidos</t>
+          <t>20 ml</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>R$ 20.90</t>
+          <t>R$ 76.90</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>R$ 20.90</t>
+          <t>R$ 76.90</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8558,12 +8558,12 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>3871150</t>
+          <t>3328332</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>871150</t>
+          <t>328332</t>
         </is>
       </c>
       <c r="M127" t="inlineStr"/>
@@ -8582,7 +8582,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Meticorten 5 mg MSD Anti-inflamatório para Cães e Gatos</t>
+          <t>Anti-inflamatório Gatos Meloxicam Mellis Vet</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>R$ 24.90</t>
+          <t>R$ 19.90</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>R$ 24.90</t>
+          <t>R$ 19.90</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -8622,12 +8622,12 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>3921670</t>
+          <t>3968340</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>921670</t>
+          <t>968340</t>
         </is>
       </c>
       <c r="M128" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Prediderm 5 mg Anti-inflamatório para Cães</t>
+          <t>Anti-inflamatório Flamavet 0,2mg Gatos</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -8686,12 +8686,12 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>3280330</t>
+          <t>3871150</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>280330</t>
+          <t>871150</t>
         </is>
       </c>
       <c r="M129" t="inlineStr"/>
@@ -8710,17 +8710,17 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Anti-inflamatório Meloxitabs 0,5mg para Cães e Gatos Biovet</t>
+          <t>Anti-inflamatório Flamavet Cães</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>10 comprimidos</t>
+          <t>0,5 mg</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>R$ 29.90</t>
+          <t>R$ 37.90</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>R$ 29.90</t>
+          <t>R$ 37.90</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
@@ -8750,12 +8750,12 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>3790443</t>
+          <t>3871141</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>790443</t>
+          <t>871141</t>
         </is>
       </c>
       <c r="M130" t="inlineStr"/>
@@ -8774,17 +8774,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Cort-Trat Anti-inflamatório para Cães e Gatos</t>
+          <t>Anti-inflamatório Flamavet Cães</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>20 Comprimidos</t>
+          <t>2 mg</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>R$ 24.50</t>
+          <t>R$ 58.90</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>R$ 24.50</t>
+          <t>R$ 58.90</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -8814,12 +8814,12 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>3694312</t>
+          <t>3871141</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>694312</t>
+          <t>871117</t>
         </is>
       </c>
       <c r="M131" t="inlineStr"/>
@@ -8838,17 +8838,17 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Anti-Inflamatório Azium Cães e Gatos</t>
+          <t>Anti-inflamatório Meloxitabs 0,5mg para Cães e Gatos Biovet</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>20 comprimidos</t>
+          <t>10 comprimidos</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>R$ 35.50</t>
+          <t>R$ 29.90</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -8863,7 +8863,7 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>R$ 35.50</t>
+          <t>R$ 29.90</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -8878,12 +8878,12 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>3927082</t>
+          <t>3790443</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>927082</t>
+          <t>790443</t>
         </is>
       </c>
       <c r="M132" t="inlineStr"/>
@@ -8902,17 +8902,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Anti-Inflamatório Meloxivet 1mg</t>
+          <t>Cort-Trat Anti-inflamatório para Cães e Gatos</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>10 comprimidos</t>
+          <t>20 Comprimidos</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>R$ 74.90</t>
+          <t>R$ 24.50</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>R$ 74.90</t>
+          <t>R$ 24.50</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -8942,12 +8942,12 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>3326615</t>
+          <t>3694312</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>326615</t>
+          <t>694312</t>
         </is>
       </c>
       <c r="M133" t="inlineStr"/>
@@ -8966,7 +8966,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Furolisin 10mg Diurético para Cães e Gatos</t>
+          <t>Meticorten 5 mg MSD Anti-inflamatório para Cães e Gatos</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>R$ 15.90</t>
+          <t>R$ 24.90</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>R$ 15.90</t>
+          <t>R$ 24.90</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -9006,12 +9006,12 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>3949850</t>
+          <t>3921670</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>949850</t>
+          <t>921670</t>
         </is>
       </c>
       <c r="M134" t="inlineStr"/>
@@ -9030,17 +9030,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Preditabs 5 mg Anti-inflamatório para Cães e Gatos</t>
+          <t>Anti-Inflamatório Azium Cães e Gatos</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>10 comprimidos</t>
+          <t>20 comprimidos</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>R$ 19.50</t>
+          <t>R$ 35.50</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -9055,7 +9055,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>R$ 19.50</t>
+          <t>R$ 35.50</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -9070,12 +9070,12 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>31161644</t>
+          <t>3927082</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>1161644</t>
+          <t>927082</t>
         </is>
       </c>
       <c r="M135" t="inlineStr"/>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MeloxiWorld 0,5mg para Cães e Gatos</t>
+          <t>Anti-Inflamatório Meloxivet 1mg</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>R$ 22.90</t>
+          <t>R$ 74.90</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -9119,7 +9119,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>R$ 22.90</t>
+          <t>R$ 74.90</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -9134,12 +9134,12 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>31140256</t>
+          <t>3326615</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>1140256</t>
+          <t>326615</t>
         </is>
       </c>
       <c r="M136" t="inlineStr"/>
@@ -9158,7 +9158,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Anti-Inflamatório Metilvet 10mg</t>
+          <t>MeloxiWorld 0,5mg para Cães e Gatos</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>R$ 53.90</t>
+          <t>R$ 22.90</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>R$ 53.90</t>
+          <t>R$ 22.90</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -9198,12 +9198,12 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>3963097</t>
+          <t>31140256</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>963097</t>
+          <t>1140256</t>
         </is>
       </c>
       <c r="M137" t="inlineStr"/>
@@ -9222,7 +9222,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Anti-Inflamatório Meloxinew 0,5mg Vetnil</t>
+          <t>Furolisin 10mg Diurético para Cães e Gatos</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>R$ 51.90</t>
+          <t>R$ 15.90</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -9247,7 +9247,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>R$ 51.90</t>
+          <t>R$ 15.90</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -9262,12 +9262,12 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>3949817</t>
+          <t>3949850</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>949817</t>
+          <t>949850</t>
         </is>
       </c>
       <c r="M138" t="inlineStr"/>
@@ -9286,17 +9286,17 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Anti-Inflamatório Labyes Condroitín Injetável</t>
+          <t>Preditabs 5 mg Anti-inflamatório para Cães e Gatos</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>5 ml</t>
+          <t>10 comprimidos</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>R$ 217.90</t>
+          <t>R$ 19.50</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -9311,7 +9311,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>R$ 217.90</t>
+          <t>R$ 19.50</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -9326,12 +9326,12 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>3920649</t>
+          <t>31161644</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>920649</t>
+          <t>1161644</t>
         </is>
       </c>
       <c r="M139" t="inlineStr"/>
@@ -9350,7 +9350,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Alergocort Coveli Anti-inflamatório para Cães e Gatos</t>
+          <t>Anti-Inflamatório Metilvet 10mg</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -9360,7 +9360,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>R$ 29.50</t>
+          <t>R$ 53.90</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -9375,7 +9375,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>R$ 29.50</t>
+          <t>R$ 53.90</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -9390,12 +9390,12 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>3541648</t>
+          <t>3963097</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>541648</t>
+          <t>963097</t>
         </is>
       </c>
       <c r="M140" t="inlineStr"/>
@@ -9414,7 +9414,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MeloxiWorld 2,0mg para Cães e Gatos</t>
+          <t>Anti-Inflamatório Meloxinew 0,5mg Vetnil</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -9424,7 +9424,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>R$ 35.50</t>
+          <t>R$ 51.90</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -9439,7 +9439,7 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>R$ 35.50</t>
+          <t>R$ 51.90</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -9454,12 +9454,12 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>31140264</t>
+          <t>3949817</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>1140264</t>
+          <t>949817</t>
         </is>
       </c>
       <c r="M141" t="inlineStr"/>
@@ -9478,17 +9478,17 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Onsior 6mg Anti-inflamatório para Gatos</t>
+          <t>Anti-Inflamatório Labyes Condroitín Injetável</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>6 comprimidos</t>
+          <t>5 ml</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>R$ 82.90</t>
+          <t>R$ 217.90</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -9503,7 +9503,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>R$ 82.90</t>
+          <t>R$ 217.90</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -9518,12 +9518,12 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>3959634</t>
+          <t>3920649</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>959634</t>
+          <t>920649</t>
         </is>
       </c>
       <c r="M142" t="inlineStr"/>
@@ -9537,22 +9537,22 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Carproflan</t>
+          <t>Maxicam</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Anti-inflamatório Carproflan 25mg</t>
+          <t>Alergocort Coveli Anti-inflamatório para Cães e Gatos</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>14 comprimidos</t>
+          <t>10 comprimidos</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>R$ 74.90</t>
+          <t>R$ 29.50</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>R$ 74.90</t>
+          <t>R$ 29.50</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -9582,12 +9582,12 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>3133949</t>
+          <t>3541648</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>133949</t>
+          <t>541648</t>
         </is>
       </c>
       <c r="M143" t="inlineStr"/>
@@ -9601,22 +9601,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Carproflan</t>
+          <t>Maxicam</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Anti-inflamatório Carproflan 100mg</t>
+          <t>MeloxiWorld 2,0mg para Cães e Gatos</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>14 comprimidos</t>
+          <t>10 comprimidos</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>R$ 122.90</t>
+          <t>R$ 35.50</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -9631,7 +9631,7 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>R$ 122.90</t>
+          <t>R$ 35.50</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -9646,12 +9646,12 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>3133965</t>
+          <t>31140264</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>133965</t>
+          <t>1140264</t>
         </is>
       </c>
       <c r="M144" t="inlineStr"/>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Anti-inflamatório Carproflan 75mg</t>
+          <t>Anti-inflamatório Carproflan 25mg</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>R$ 102.90</t>
+          <t>R$ 74.90</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>R$ 102.90</t>
+          <t>R$ 74.90</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -9710,12 +9710,12 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>3133957</t>
+          <t>3133949</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>133957</t>
+          <t>133949</t>
         </is>
       </c>
       <c r="M145" t="inlineStr"/>
@@ -9729,22 +9729,22 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Previcox</t>
+          <t>Carproflan</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Previcox 227mg Anti-inflamatório para Cães</t>
+          <t>Anti-inflamatório Carproflan 75mg</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>10 Comprimidos</t>
+          <t>14 comprimidos</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>R$ 270.00</t>
+          <t>R$ 102.90</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -9759,7 +9759,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>R$ 270.00</t>
+          <t>R$ 102.90</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -9774,12 +9774,12 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>3328294</t>
+          <t>3133957</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>328294</t>
+          <t>133957</t>
         </is>
       </c>
       <c r="M146" t="inlineStr"/>
@@ -9793,22 +9793,22 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Previcox</t>
+          <t>Carproflan</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Previcox 57 mg Anti-inflamatório para Cães</t>
+          <t>Anti-inflamatório Carproflan 100mg</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>10 comprimidos</t>
+          <t>14 comprimidos</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>R$ 185.00</t>
+          <t>R$ 122.90</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -9823,7 +9823,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>R$ 185.00</t>
+          <t>R$ 122.90</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -9838,12 +9838,12 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>3328286</t>
+          <t>3133965</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>328286</t>
+          <t>133965</t>
         </is>
       </c>
       <c r="M147" t="inlineStr"/>
@@ -9852,27 +9852,27 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Dermatológico / Antialergico</t>
+          <t>Anti-inflamatório</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Apoquel</t>
+          <t>Previcox</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Apoquel 5,4 mg Antialérgico para Cachorro</t>
+          <t>Previcox 57 mg Anti-inflamatório para Cães</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>20 Comprimidos</t>
+          <t>10 comprimidos</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>R$ 184.90</t>
+          <t>R$ 185.00</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -9887,12 +9887,12 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>R$ 264.90</t>
+          <t>R$ 185.00</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9902,12 +9902,12 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>3816442</t>
+          <t>3328286</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>816442</t>
+          <t>328286</t>
         </is>
       </c>
       <c r="M148" t="inlineStr"/>
@@ -9916,27 +9916,27 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Dermatológico / Antialergico</t>
+          <t>Anti-inflamatório</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Apoquel</t>
+          <t>Previcox</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Apoquel 3,6 mg Antialérgico para Cachorro</t>
+          <t>Previcox 227mg Anti-inflamatório para Cães</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>20 Comprimidos</t>
+          <t>10 Comprimidos</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>R$ 172.50</t>
+          <t>R$ 270.00</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -9951,12 +9951,12 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>R$ 246.90</t>
+          <t>R$ 270.00</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -9966,12 +9966,12 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>3816434</t>
+          <t>3328294</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>816434</t>
+          <t>328294</t>
         </is>
       </c>
       <c r="M149" t="inlineStr"/>
@@ -9990,7 +9990,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Apoquel 16 mg Antialérgico para Cachorro</t>
+          <t>Apoquel 5,4 mg Antialérgico para Cachorro</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -10000,7 +10000,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>R$ 369.50</t>
+          <t>R$ 184.90</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -10015,7 +10015,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>R$ 527.90</t>
+          <t>R$ 264.90</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -10030,12 +10030,12 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>3816450</t>
+          <t>3816442</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>816450</t>
+          <t>816442</t>
         </is>
       </c>
       <c r="M150" t="inlineStr"/>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Zenrelia</t>
+          <t>Apoquel</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Zenrelia 6,4mg Tratamento para Coceira em Cães</t>
+          <t>Apoquel 3,6 mg Antialérgico para Cachorro</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>30 comprimidos</t>
+          <t>20 Comprimidos</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>R$ 272.50</t>
+          <t>R$ 172.50</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -10079,12 +10079,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>R$ 272.50</t>
+          <t>R$ 246.90</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10094,12 +10094,12 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>31153803</t>
+          <t>3816434</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>1153803</t>
+          <t>816434</t>
         </is>
       </c>
       <c r="M151" t="inlineStr"/>
@@ -10113,22 +10113,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Zenrelia</t>
+          <t>Apoquel</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Zenrelia 4,8mg Tratamento para Coceira em Cães</t>
+          <t>Apoquel 16 mg Antialérgico para Cachorro</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>30 comprimidos</t>
+          <t>20 Comprimidos</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>R$ 255.50</t>
+          <t>R$ 369.50</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -10143,12 +10143,12 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>R$ 255.50</t>
+          <t>R$ 527.90</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10158,12 +10158,12 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>31153790</t>
+          <t>3816450</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>1153790</t>
+          <t>816450</t>
         </is>
       </c>
       <c r="M152" t="inlineStr"/>
@@ -10182,7 +10182,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Zenrelia 15mg Tratamento para Coceira em Cães</t>
+          <t>Zenrelia 8,5mg Tratamento para Coceira em Cães</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -10192,7 +10192,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>R$ 456.90</t>
+          <t>R$ 286.90</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>R$ 456.90</t>
+          <t>R$ 286.90</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -10222,12 +10222,12 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>31153820</t>
+          <t>31153811</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>1153820</t>
+          <t>1153811</t>
         </is>
       </c>
       <c r="M153" t="inlineStr"/>
@@ -10246,7 +10246,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Zenrelia 8,5mg Tratamento para Coceira em Cães</t>
+          <t>Zenrelia 6,4mg Tratamento para Coceira em Cães</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>R$ 286.90</t>
+          <t>R$ 272.50</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -10271,7 +10271,7 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>R$ 286.90</t>
+          <t>R$ 272.50</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -10286,12 +10286,12 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>31153811</t>
+          <t>31153803</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>1153811</t>
+          <t>1153803</t>
         </is>
       </c>
       <c r="M154" t="inlineStr"/>
@@ -10300,27 +10300,27 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Antibiótico</t>
+          <t>Dermatológico / Antialergico</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Synulox</t>
+          <t>Zenrelia</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Synulox 50mg Antibiótico para Cães e Gatos</t>
+          <t>Zenrelia 4,8mg Tratamento para Coceira em Cães</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>10 comprimidos</t>
+          <t>30 comprimidos</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>R$ 88.90</t>
+          <t>R$ 255.50</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -10335,7 +10335,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>R$ 88.90</t>
+          <t>R$ 255.50</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -10350,12 +10350,12 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>3941336</t>
+          <t>31153790</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>941336</t>
+          <t>1153790</t>
         </is>
       </c>
       <c r="M155" t="inlineStr"/>
@@ -10364,27 +10364,27 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Antibiótico</t>
+          <t>Dermatológico / Antialergico</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Synulox</t>
+          <t>Zenrelia</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Synulox 250mg Antibiótico para Cães e Gatos</t>
+          <t>Zenrelia 15mg Tratamento para Coceira em Cães</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>10 comprimidos</t>
+          <t>30 comprimidos</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>R$ 138.54</t>
+          <t>R$ 456.90</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -10399,12 +10399,12 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>R$ 155.90</t>
+          <t>R$ 456.90</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>11%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10414,12 +10414,12 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>3940356</t>
+          <t>31153820</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>940356</t>
+          <t>1153820</t>
         </is>
       </c>
       <c r="M156" t="inlineStr"/>
@@ -10433,12 +10433,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Baytril</t>
+          <t>Synulox</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Baytril Flavour 50mg Antimicrobiano</t>
+          <t>Synulox 250mg Antibiótico para Cães e Gatos</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>R$ 51.90</t>
+          <t>R$ 138.54</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -10463,12 +10463,12 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>R$ 51.90</t>
+          <t>R$ 155.90</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>11%</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10478,12 +10478,12 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>3300900</t>
+          <t>3940356</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>300900</t>
+          <t>940356</t>
         </is>
       </c>
       <c r="M157" t="inlineStr"/>
@@ -10497,12 +10497,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Baytril</t>
+          <t>Synulox</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Baytril Flavour 15mg Antimicrobiano</t>
+          <t>Synulox 50mg Antibiótico para Cães e Gatos</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -10512,7 +10512,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>R$ 37.90</t>
+          <t>R$ 88.90</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -10527,7 +10527,7 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>R$ 37.90</t>
+          <t>R$ 88.90</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -10542,12 +10542,12 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>3301183</t>
+          <t>3941336</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>301183</t>
+          <t>941336</t>
         </is>
       </c>
       <c r="M158" t="inlineStr"/>
@@ -10566,7 +10566,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Baytril Flavour 150mg Antimicrobiano</t>
+          <t>Baytril Flavour 50mg Antimicrobiano</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -10576,7 +10576,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>R$ 103.90</t>
+          <t>R$ 51.90</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>R$ 103.90</t>
+          <t>R$ 51.90</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -10606,12 +10606,12 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>3300896</t>
+          <t>3300900</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>300896</t>
+          <t>300900</t>
         </is>
       </c>
       <c r="M159" t="inlineStr"/>
@@ -10630,17 +10630,17 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Baytril 5% Injetável Cães e Gatos</t>
+          <t>Baytril Flavour 15mg Antimicrobiano</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>10ml</t>
+          <t>10 comprimidos</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>R$ 47.90</t>
+          <t>R$ 37.90</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -10655,7 +10655,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>R$ 47.90</t>
+          <t>R$ 37.90</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -10670,16 +10670,144 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>3929085</t>
+          <t>3301183</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>929085</t>
+          <t>301183</t>
         </is>
       </c>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Antibiótico</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Baytril</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Baytril Flavour 150mg Antimicrobiano</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>10 comprimidos</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>R$ 103.90</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>cobasi.com.br</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>R$ 103.90</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>AVAILABLE</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>3300896</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>300896</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Antibiótico</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Baytril</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Baytril 5% Injetável Cães e Gatos</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>10ml</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>R$ 47.90</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>cobasi.com.br</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>R$ 47.90</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>AVAILABLE</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>3929085</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>929085</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
